--- a/Models/DHI.xlsx
+++ b/Models/DHI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC08BDF-DA5C-4279-9FD9-596018EB4826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03D9A9B-CCFA-41CA-93AE-BC2BD994A061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15810" yWindow="6795" windowWidth="33135" windowHeight="13650" xr2:uid="{0059096E-FB45-4687-8E83-CA48A4808244}"/>
+    <workbookView xWindow="16815" yWindow="945" windowWidth="15420" windowHeight="13650" xr2:uid="{0059096E-FB45-4687-8E83-CA48A4808244}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -756,7 +756,7 @@
   <dimension ref="M1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +827,7 @@
     </row>
     <row r="11" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M11" s="2">
-        <v>44775</v>
+        <v>44778</v>
       </c>
     </row>
     <row r="15" spans="13:14" x14ac:dyDescent="0.25">
@@ -1084,7 +1084,7 @@
         <v>24805.871999999999</v>
       </c>
       <c r="X3" s="1">
-        <f t="shared" ref="W3:AF3" si="0">W3*(1+X43)</f>
+        <f t="shared" ref="X3:AF3" si="0">W3*(1+X43)</f>
         <v>20340.815040000001</v>
       </c>
       <c r="Y3" s="1">
@@ -1580,43 +1580,43 @@
         <v>131.44</v>
       </c>
       <c r="W8" s="1">
-        <f>W4-W4*W33</f>
+        <f t="shared" ref="W8:AF8" si="7">W4-W4*W33</f>
         <v>146.94992000000002</v>
       </c>
       <c r="X8" s="1">
-        <f>X4-X4*X33</f>
+        <f t="shared" si="7"/>
         <v>122.98577920000001</v>
       </c>
       <c r="Y8" s="1">
-        <f>Y4-Y4*Y33</f>
+        <f t="shared" si="7"/>
         <v>136.58655948800001</v>
       </c>
       <c r="Z8" s="1">
-        <f>Z4-Z4*Z33</f>
+        <f t="shared" si="7"/>
         <v>140.854889472</v>
       </c>
       <c r="AA8" s="1">
-        <f>AA4-AA4*AA33</f>
+        <f t="shared" si="7"/>
         <v>156.34892731392</v>
       </c>
       <c r="AB8" s="1">
-        <f>AB4-AB4*AB33</f>
+        <f t="shared" si="7"/>
         <v>168.85684149903364</v>
       </c>
       <c r="AC8" s="1">
-        <f>AC4-AC4*AC33</f>
+        <f t="shared" si="7"/>
         <v>182.36538881895635</v>
       </c>
       <c r="AD8" s="1">
-        <f>AD4-AD4*AD33</f>
+        <f t="shared" si="7"/>
         <v>196.95461992447287</v>
       </c>
       <c r="AE8" s="1">
-        <f>AE4-AE4*AE33</f>
+        <f t="shared" si="7"/>
         <v>212.71098951843072</v>
       </c>
       <c r="AF8" s="1">
-        <f>AF4-AF4*AF33</f>
+        <f t="shared" si="7"/>
         <v>229.72786867990519</v>
       </c>
     </row>
@@ -1680,43 +1680,43 @@
         <v>283.2</v>
       </c>
       <c r="W9" s="1">
-        <f>W5-W5*W34</f>
+        <f t="shared" ref="W9:AF9" si="8">W5-W5*W34</f>
         <v>560.73599999999988</v>
       </c>
       <c r="X9" s="1">
-        <f>X5-X5*X34</f>
+        <f t="shared" si="8"/>
         <v>616.80960000000005</v>
       </c>
       <c r="Y9" s="1">
-        <f>Y5-Y5*Y34</f>
+        <f t="shared" si="8"/>
         <v>1211.18976</v>
       </c>
       <c r="Z9" s="1">
-        <f>Z5-Z5*Z34</f>
+        <f t="shared" si="8"/>
         <v>1574.5466880000001</v>
       </c>
       <c r="AA9" s="1">
-        <f>AA5-AA5*AA34</f>
+        <f t="shared" si="8"/>
         <v>1889.4560256</v>
       </c>
       <c r="AB9" s="1">
-        <f>AB5-AB5*AB34</f>
+        <f t="shared" si="8"/>
         <v>2172.8744294399994</v>
       </c>
       <c r="AC9" s="1">
-        <f>AC5-AC5*AC34</f>
+        <f t="shared" si="8"/>
         <v>2390.1618723840002</v>
       </c>
       <c r="AD9" s="1">
-        <f>AD5-AD5*AD34</f>
+        <f t="shared" si="8"/>
         <v>2629.1780596224003</v>
       </c>
       <c r="AE9" s="1">
-        <f>AE5-AE5*AE34</f>
+        <f t="shared" si="8"/>
         <v>2760.6369626035203</v>
       </c>
       <c r="AF9" s="1">
-        <f>AF5-AF5*AF34</f>
+        <f t="shared" si="8"/>
         <v>2898.6688107336968</v>
       </c>
     </row>
@@ -1780,43 +1780,43 @@
         <v>181.19200000000001</v>
       </c>
       <c r="W10" s="1">
-        <f>W6-W6*W35</f>
+        <f t="shared" ref="W10:AF10" si="9">W6-W6*W35</f>
         <v>199.31119999999999</v>
       </c>
       <c r="X10" s="1">
-        <f>X6-X6*X35</f>
+        <f t="shared" si="9"/>
         <v>219.24232000000006</v>
       </c>
       <c r="Y10" s="1">
-        <f>Y6-Y6*Y35</f>
+        <f t="shared" si="9"/>
         <v>241.16655200000002</v>
       </c>
       <c r="Z10" s="1">
-        <f>Z6-Z6*Z35</f>
+        <f t="shared" si="9"/>
         <v>265.28320720000011</v>
       </c>
       <c r="AA10" s="1">
-        <f>AA6-AA6*AA35</f>
+        <f t="shared" si="9"/>
         <v>291.81152792000012</v>
       </c>
       <c r="AB10" s="1">
-        <f>AB6-AB6*AB35</f>
+        <f t="shared" si="9"/>
         <v>320.99268071200004</v>
       </c>
       <c r="AC10" s="1">
-        <f>AC6-AC6*AC35</f>
+        <f t="shared" si="9"/>
         <v>353.09194878320022</v>
       </c>
       <c r="AD10" s="1">
-        <f>AD6-AD6*AD35</f>
+        <f t="shared" si="9"/>
         <v>388.40114366152034</v>
       </c>
       <c r="AE10" s="1">
-        <f>AE6-AE6*AE35</f>
+        <f t="shared" si="9"/>
         <v>427.2412580276723</v>
       </c>
       <c r="AF10" s="1">
-        <f>AF6-AF6*AF35</f>
+        <f t="shared" si="9"/>
         <v>469.96538383043958</v>
       </c>
     </row>
@@ -1881,43 +1881,43 @@
         <v>32742.579999999998</v>
       </c>
       <c r="W11" s="5">
-        <f t="shared" ref="W11:AF11" si="7">SUM(W3:W6)</f>
+        <f t="shared" ref="W11:AF11" si="10">SUM(W3:W6)</f>
         <v>26963.0648</v>
       </c>
       <c r="X11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>22739.360080000002</v>
       </c>
       <c r="Y11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>26443.906104000005</v>
       </c>
       <c r="Z11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>29309.068385952007</v>
       </c>
       <c r="AA11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>32037.264186021766</v>
       </c>
       <c r="AB11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>34874.355958495507</v>
       </c>
       <c r="AC11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>37776.880533966352</v>
       </c>
       <c r="AD11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>40922.864685353976</v>
       </c>
       <c r="AE11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>44089.46852679165</v>
       </c>
       <c r="AF11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>47505.981414593116</v>
       </c>
       <c r="AG11" s="5"/>
@@ -1986,43 +1986,43 @@
         <v>22611.043399999999</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" ref="W12:AF12" si="8">SUM(W7:W10)</f>
+        <f t="shared" ref="W12:AF12" si="11">SUM(W7:W10)</f>
         <v>19759.45984</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>16824.873430400003</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>18675.227505088005</v>
       </c>
       <c r="Z12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>20853.055705304323</v>
       </c>
       <c r="AA12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>22719.777075116832</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>24675.457393476572</v>
       </c>
       <c r="AC12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>26699.371327157744</v>
       </c>
       <c r="AD12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>28890.186109753711</v>
       </c>
       <c r="AE12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>31130.29367961856</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>33546.442890270497</v>
       </c>
     </row>
@@ -2032,47 +2032,47 @@
         <v>31</v>
       </c>
       <c r="C13" s="5">
-        <f>+C11-C12</f>
+        <f t="shared" ref="C13:M13" si="12">+C11-C12</f>
         <v>936.5</v>
       </c>
       <c r="D13" s="5">
-        <f>+D11-D12</f>
+        <f t="shared" si="12"/>
         <v>1049.1999999999998</v>
       </c>
       <c r="E13" s="5">
-        <f>+E11-E12</f>
+        <f t="shared" si="12"/>
         <v>1305.3000000000002</v>
       </c>
       <c r="F13" s="5">
-        <f>+F11-F12</f>
+        <f t="shared" si="12"/>
         <v>636.70000000000073</v>
       </c>
       <c r="G13" s="5">
-        <f>+G11-G12</f>
+        <f t="shared" si="12"/>
         <v>1600.8999999999996</v>
       </c>
       <c r="H13" s="5">
-        <f>+H11-H12</f>
+        <f t="shared" si="12"/>
         <v>1796</v>
       </c>
       <c r="I13" s="5">
-        <f>+I11-I12</f>
+        <f t="shared" si="12"/>
         <v>2072</v>
       </c>
       <c r="J13" s="5">
-        <f>+J11-J12</f>
+        <f t="shared" si="12"/>
         <v>1581.6000000000004</v>
       </c>
       <c r="K13" s="5">
-        <f>+K11-K12</f>
+        <f t="shared" si="12"/>
         <v>2147.6999999999998</v>
       </c>
       <c r="L13" s="5">
-        <f>+L11-L12</f>
+        <f t="shared" si="12"/>
         <v>2569.1000000000004</v>
       </c>
       <c r="M13" s="5">
-        <f>+M11-M12</f>
+        <f t="shared" si="12"/>
         <v>2908.7</v>
       </c>
       <c r="N13" s="5"/>
@@ -2099,47 +2099,47 @@
         <v>7875</v>
       </c>
       <c r="V13" s="5">
-        <f t="shared" ref="V13:AF13" si="9">+V11-V12</f>
+        <f t="shared" ref="V13:AF13" si="13">+V11-V12</f>
         <v>10131.536599999999</v>
       </c>
       <c r="W13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7203.6049600000006</v>
       </c>
       <c r="X13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5914.4866495999995</v>
       </c>
       <c r="Y13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7768.6785989119999</v>
       </c>
       <c r="Z13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8456.0126806476837</v>
       </c>
       <c r="AA13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9317.4871109049345</v>
       </c>
       <c r="AB13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>10198.898565018935</v>
       </c>
       <c r="AC13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>11077.509206808609</v>
       </c>
       <c r="AD13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12032.678575600265</v>
       </c>
       <c r="AE13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12959.17484717309</v>
       </c>
       <c r="AF13" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>13959.538524322619</v>
       </c>
       <c r="AG13" s="5"/>
@@ -2203,47 +2203,47 @@
         <v>2556</v>
       </c>
       <c r="V14" s="1">
-        <f>V11*V41</f>
+        <f t="shared" ref="V14:AF14" si="14">V11*V41</f>
         <v>2946.8321999999998</v>
       </c>
       <c r="W14" s="1">
-        <f>W11*W41</f>
+        <f t="shared" si="14"/>
         <v>2426.6758319999999</v>
       </c>
       <c r="X14" s="1">
-        <f>X11*X41</f>
+        <f t="shared" si="14"/>
         <v>2046.5424072000001</v>
       </c>
       <c r="Y14" s="1">
-        <f>Y11*Y41</f>
+        <f t="shared" si="14"/>
         <v>2379.9515493600002</v>
       </c>
       <c r="Z14" s="1">
-        <f>Z11*Z41</f>
+        <f t="shared" si="14"/>
         <v>2344.7254708761607</v>
       </c>
       <c r="AA14" s="1">
-        <f>AA11*AA41</f>
+        <f t="shared" si="14"/>
         <v>2562.9811348817416</v>
       </c>
       <c r="AB14" s="1">
-        <f>AB11*AB41</f>
+        <f t="shared" si="14"/>
         <v>2789.9484766796409</v>
       </c>
       <c r="AC14" s="1">
-        <f>AC11*AC41</f>
+        <f t="shared" si="14"/>
         <v>3022.1504427173081</v>
       </c>
       <c r="AD14" s="1">
-        <f>AD11*AD41</f>
+        <f t="shared" si="14"/>
         <v>3273.8291748283182</v>
       </c>
       <c r="AE14" s="1">
-        <f>AE11*AE41</f>
+        <f t="shared" si="14"/>
         <v>3527.1574821433319</v>
       </c>
       <c r="AF14" s="1">
-        <f>AF11*AF41</f>
+        <f t="shared" si="14"/>
         <v>3800.4785131674494</v>
       </c>
       <c r="AG14" s="1"/>
@@ -2258,114 +2258,114 @@
         <v>15</v>
       </c>
       <c r="C15" s="5">
-        <f>+C13-C14</f>
+        <f t="shared" ref="C15:M15" si="15">+C13-C14</f>
         <v>480.7</v>
       </c>
       <c r="D15" s="5">
-        <f>+D13-D14</f>
+        <f t="shared" si="15"/>
         <v>582.39999999999986</v>
       </c>
       <c r="E15" s="5">
-        <f>+E13-E14</f>
+        <f t="shared" si="15"/>
         <v>777.80000000000018</v>
       </c>
       <c r="F15" s="5">
-        <f>+F13-F14</f>
+        <f t="shared" si="15"/>
         <v>39.000000000000682</v>
       </c>
       <c r="G15" s="5">
-        <f>+G13-G14</f>
+        <f t="shared" si="15"/>
         <v>1014.9999999999997</v>
       </c>
       <c r="H15" s="5">
-        <f>+H13-H14</f>
+        <f t="shared" si="15"/>
         <v>1174.5</v>
       </c>
       <c r="I15" s="5">
-        <f>+I13-I14</f>
+        <f t="shared" si="15"/>
         <v>1416.3</v>
       </c>
       <c r="J15" s="5">
-        <f>+J13-J14</f>
+        <f t="shared" si="15"/>
         <v>888.70000000000039</v>
       </c>
       <c r="K15" s="5">
-        <f>+K13-K14</f>
+        <f t="shared" si="15"/>
         <v>1481.7999999999997</v>
       </c>
       <c r="L15" s="5">
-        <f>+L13-L14</f>
+        <f t="shared" si="15"/>
         <v>1874.0000000000005</v>
       </c>
       <c r="M15" s="5">
-        <f>+M13-M14</f>
+        <f t="shared" si="15"/>
         <v>2168.1</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="5">
-        <f>+Q13-Q14</f>
+        <f t="shared" ref="Q15:V15" si="16">+Q13-Q14</f>
         <v>1576.6000000000008</v>
       </c>
       <c r="R15" s="5">
-        <f>+R13-R14</f>
+        <f t="shared" si="16"/>
         <v>1993.2</v>
       </c>
       <c r="S15" s="5">
-        <f>+S13-S14</f>
+        <f t="shared" si="16"/>
         <v>2039.5000000000018</v>
       </c>
       <c r="T15" s="5">
-        <f>+T13-T14</f>
+        <f t="shared" si="16"/>
         <v>2890.2</v>
       </c>
       <c r="U15" s="5">
-        <f>+U13-U14</f>
+        <f t="shared" si="16"/>
         <v>5319</v>
       </c>
       <c r="V15" s="5">
-        <f>+V13-V14</f>
+        <f t="shared" si="16"/>
         <v>7184.7043999999996</v>
       </c>
       <c r="W15" s="5">
-        <f t="shared" ref="W15:AF15" si="10">+W13-W14</f>
+        <f t="shared" ref="W15:AF15" si="17">+W13-W14</f>
         <v>4776.9291280000007</v>
       </c>
       <c r="X15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3867.9442423999994</v>
       </c>
       <c r="Y15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>5388.7270495519997</v>
       </c>
       <c r="Z15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>6111.2872097715226</v>
       </c>
       <c r="AA15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>6754.5059760231925</v>
       </c>
       <c r="AB15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>7408.9500883392939</v>
       </c>
       <c r="AC15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>8055.3587640913011</v>
       </c>
       <c r="AD15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>8758.8494007719455</v>
       </c>
       <c r="AE15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>9432.0173650297584</v>
       </c>
       <c r="AF15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>10159.06001115517</v>
       </c>
       <c r="AG15" s="5"/>
@@ -2434,43 +2434,43 @@
         <v>81.652499999999989</v>
       </c>
       <c r="W16" s="1">
-        <f t="shared" ref="W16:AF16" si="11">V30*0.005</f>
+        <f t="shared" ref="W16:AF16" si="18">V30*0.005</f>
         <v>109.26465622000001</v>
       </c>
       <c r="X16" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>126.73954603783601</v>
       </c>
       <c r="Y16" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>140.65194897352143</v>
       </c>
       <c r="Z16" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>160.2570696781832</v>
       </c>
       <c r="AA16" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>182.48636724331024</v>
       </c>
       <c r="AB16" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>207.02207447528986</v>
       </c>
       <c r="AC16" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>233.89254794923235</v>
       </c>
       <c r="AD16" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>263.05277745549409</v>
       </c>
       <c r="AE16" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>294.7054779582034</v>
       </c>
       <c r="AF16" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>328.71996998197568</v>
       </c>
       <c r="AG16" s="1"/>
@@ -2626,47 +2626,47 @@
         <v>47</v>
       </c>
       <c r="C19" s="5">
-        <f>+C15+C16-C17+C18</f>
+        <f t="shared" ref="C19:M19" si="19">+C15+C16-C17+C18</f>
         <v>523.29999999999995</v>
       </c>
       <c r="D19" s="5">
-        <f>+D15+D16-D17+D18</f>
+        <f t="shared" si="19"/>
         <v>621.29999999999984</v>
       </c>
       <c r="E19" s="5">
-        <f>+E15+E16-E17+E18</f>
+        <f t="shared" si="19"/>
         <v>782.4000000000002</v>
       </c>
       <c r="F19" s="5">
-        <f>+F15+F16-F17+F18</f>
+        <f t="shared" si="19"/>
         <v>45.800000000000679</v>
       </c>
       <c r="G19" s="5">
-        <f>+G15+G16-G17+G18</f>
+        <f t="shared" si="19"/>
         <v>1034.2999999999995</v>
       </c>
       <c r="H19" s="5">
-        <f>+H15+H16-H17+H18</f>
+        <f t="shared" si="19"/>
         <v>1179.9000000000001</v>
       </c>
       <c r="I19" s="5">
-        <f>+I15+I16-I17+I18</f>
+        <f t="shared" si="19"/>
         <v>1415.6000000000001</v>
       </c>
       <c r="J19" s="5">
-        <f>+J15+J16-J17+J18</f>
+        <f t="shared" si="19"/>
         <v>902.60000000000036</v>
       </c>
       <c r="K19" s="5">
-        <f>+K15+K16-K17+K18</f>
+        <f t="shared" si="19"/>
         <v>1497.2999999999997</v>
       </c>
       <c r="L19" s="5">
-        <f>+L15+L16-L17+L18</f>
+        <f t="shared" si="19"/>
         <v>1883.3000000000004</v>
       </c>
       <c r="M19" s="5">
-        <f>+M15+M16-M17+M18</f>
+        <f t="shared" si="19"/>
         <v>2183.1999999999998</v>
       </c>
       <c r="N19" s="5"/>
@@ -2693,47 +2693,47 @@
         <v>5356.9</v>
       </c>
       <c r="V19" s="5">
-        <f t="shared" ref="V19:AF19" si="12">+V15+V16-V17+V18</f>
+        <f t="shared" ref="V19:AF19" si="20">+V15+V16-V17+V18</f>
         <v>7266.3568999999998</v>
       </c>
       <c r="W19" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4886.1937842200005</v>
       </c>
       <c r="X19" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>3994.6837884378356</v>
       </c>
       <c r="Y19" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>5529.3789985255207</v>
       </c>
       <c r="Z19" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>6271.5442794497058</v>
       </c>
       <c r="AA19" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>6936.9923432665028</v>
       </c>
       <c r="AB19" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>7615.9721628145835</v>
       </c>
       <c r="AC19" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>8289.2513120405329</v>
       </c>
       <c r="AD19" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>9021.9021782274394</v>
       </c>
       <c r="AE19" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>9726.7228429879615</v>
       </c>
       <c r="AF19" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>10487.779981137146</v>
       </c>
       <c r="AG19" s="5"/>
@@ -2803,43 +2803,43 @@
         <v>1743.9256559999999</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" ref="W20:AF20" si="13">W19*W38</f>
+        <f t="shared" ref="W20:AF20" si="21">W19*W38</f>
         <v>1172.6865082128002</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>958.7241092250805</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1327.050959646125</v>
       </c>
       <c r="Z20" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1505.1706270679292</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1664.8781623839607</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1827.8333190755</v>
       </c>
       <c r="AC20" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1989.4203148897277</v>
       </c>
       <c r="AD20" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2165.2565227745854</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2334.4134823171107</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2517.067195472915</v>
       </c>
       <c r="AG20" s="1"/>
@@ -2853,113 +2853,113 @@
         <v>17</v>
       </c>
       <c r="C21" s="5">
-        <f>+C19-C20</f>
+        <f t="shared" ref="C21:M21" si="22">+C19-C20</f>
         <v>432.49999999999994</v>
       </c>
       <c r="D21" s="5">
-        <f>+D19-D20</f>
+        <f t="shared" si="22"/>
         <v>483.99999999999983</v>
       </c>
       <c r="E21" s="5">
-        <f>+E19-E20</f>
+        <f t="shared" si="22"/>
         <v>632.9000000000002</v>
       </c>
       <c r="F21" s="5">
-        <f>+F19-F20</f>
+        <f t="shared" si="22"/>
         <v>-179.09999999999928</v>
       </c>
       <c r="G21" s="5">
-        <f>+G19-G20</f>
+        <f t="shared" si="22"/>
         <v>795.19999999999948</v>
       </c>
       <c r="H21" s="5">
-        <f>+H19-H20</f>
+        <f t="shared" si="22"/>
         <v>933.90000000000009</v>
       </c>
       <c r="I21" s="5">
-        <f>+I19-I20</f>
+        <f t="shared" si="22"/>
         <v>1116.5</v>
       </c>
       <c r="J21" s="5">
-        <f>+J19-J20</f>
+        <f t="shared" si="22"/>
         <v>521.80000000000041</v>
       </c>
       <c r="K21" s="5">
-        <f>+K19-K20</f>
+        <f t="shared" si="22"/>
         <v>1145.7999999999997</v>
       </c>
       <c r="L21" s="5">
-        <f>+L19-L20</f>
+        <f t="shared" si="22"/>
         <v>1442.3000000000004</v>
       </c>
       <c r="M21" s="5">
-        <f>+M19-M20</f>
+        <f t="shared" si="22"/>
         <v>1659.1999999999998</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="Q21" s="5">
-        <f>+Q19-Q20</f>
+        <f t="shared" ref="Q21:V21" si="23">+Q19-Q20</f>
         <v>1038.4000000000008</v>
       </c>
       <c r="R21" s="5">
-        <f>+R19-R20</f>
+        <f t="shared" si="23"/>
         <v>1462.3999999999999</v>
       </c>
       <c r="S21" s="5">
-        <f>+S19-S20</f>
+        <f t="shared" si="23"/>
         <v>1618.600000000002</v>
       </c>
       <c r="T21" s="5">
-        <f>+T19-T20</f>
+        <f t="shared" si="23"/>
         <v>2380.6</v>
       </c>
       <c r="U21" s="5">
-        <f>+U19-U20</f>
+        <f t="shared" si="23"/>
         <v>4191.8999999999996</v>
       </c>
       <c r="V21" s="5">
-        <f>+V19-V20</f>
+        <f t="shared" si="23"/>
         <v>5522.4312439999994</v>
       </c>
       <c r="W21" s="5">
-        <f t="shared" ref="V21:AF21" si="14">+W15-W16-W20-W17</f>
+        <f t="shared" ref="W21:AF21" si="24">+W15-W16-W20-W17</f>
         <v>3494.9779635672007</v>
       </c>
       <c r="X21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2782.4805871370827</v>
       </c>
       <c r="Y21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>3921.0241409323535</v>
       </c>
       <c r="Z21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>4445.8595130254107</v>
       </c>
       <c r="AA21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>4907.1414463959218</v>
       </c>
       <c r="AB21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>5374.0946947885041</v>
       </c>
       <c r="AC21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>5832.0459012523406</v>
       </c>
       <c r="AD21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>6330.5401005418662</v>
       </c>
       <c r="AE21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>6802.8984047544445</v>
       </c>
       <c r="AF21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>7313.2728457002795</v>
       </c>
       <c r="AG21" s="5">
@@ -2967,303 +2967,303 @@
         <v>7203.5737530147753</v>
       </c>
       <c r="AH21" s="5">
-        <f t="shared" ref="AH21:CS21" si="15">+AG21*(1+$AI$52)</f>
+        <f t="shared" ref="AH21:CS21" si="25">+AG21*(1+$AI$52)</f>
         <v>7095.5201467195538</v>
       </c>
       <c r="AI21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>6989.0873445187608</v>
       </c>
       <c r="AJ21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>6884.2510343509794</v>
       </c>
       <c r="AK21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>6780.9872688357145</v>
       </c>
       <c r="AL21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>6679.2724598031791</v>
       </c>
       <c r="AM21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>6579.0833729061314</v>
       </c>
       <c r="AN21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>6480.3971223125391</v>
       </c>
       <c r="AO21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>6383.1911654778505</v>
       </c>
       <c r="AP21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>6287.4432979956828</v>
       </c>
       <c r="AQ21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>6193.1316485257476</v>
       </c>
       <c r="AR21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>6100.2346737978614</v>
       </c>
       <c r="AS21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>6008.7311536908937</v>
       </c>
       <c r="AT21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>5918.6001863855299</v>
       </c>
       <c r="AU21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>5829.8211835897473</v>
       </c>
       <c r="AV21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>5742.3738658359007</v>
       </c>
       <c r="AW21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>5656.2382578483621</v>
       </c>
       <c r="AX21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>5571.3946839806367</v>
       </c>
       <c r="AY21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>5487.8237637209268</v>
       </c>
       <c r="AZ21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>5405.506407265113</v>
       </c>
       <c r="BA21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>5324.4238111561363</v>
       </c>
       <c r="BB21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>5244.5574539887939</v>
       </c>
       <c r="BC21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>5165.8890921789616</v>
       </c>
       <c r="BD21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>5088.4007557962768</v>
       </c>
       <c r="BE21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>5012.0747444593326</v>
       </c>
       <c r="BF21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4936.8936232924425</v>
       </c>
       <c r="BG21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4862.8402189430562</v>
       </c>
       <c r="BH21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4789.8976156589106</v>
       </c>
       <c r="BI21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4718.0491514240266</v>
       </c>
       <c r="BJ21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4647.2784141526663</v>
       </c>
       <c r="BK21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4577.5692379403763</v>
       </c>
       <c r="BL21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4508.9056993712702</v>
       </c>
       <c r="BM21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4441.272113880701</v>
       </c>
       <c r="BN21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4374.6530321724904</v>
       </c>
       <c r="BO21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4309.0332366899029</v>
       </c>
       <c r="BP21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4244.3977381395543</v>
       </c>
       <c r="BQ21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4180.731772067461</v>
       </c>
       <c r="BR21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4118.0207954864491</v>
       </c>
       <c r="BS21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4056.2504835541522</v>
       </c>
       <c r="BT21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3995.4067263008396</v>
       </c>
       <c r="BU21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3935.4756254063268</v>
       </c>
       <c r="BV21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3876.4434910252317</v>
       </c>
       <c r="BW21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3818.2968386598532</v>
       </c>
       <c r="BX21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3761.0223860799551</v>
       </c>
       <c r="BY21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3704.6070502887555</v>
       </c>
       <c r="BZ21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3649.0379445344242</v>
       </c>
       <c r="CA21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3594.3023753664079</v>
       </c>
       <c r="CB21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3540.3878397359117</v>
       </c>
       <c r="CC21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3487.2820221398729</v>
       </c>
       <c r="CD21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3434.9727918077747</v>
       </c>
       <c r="CE21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3383.4481999306581</v>
       </c>
       <c r="CF21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3332.6964769316983</v>
       </c>
       <c r="CG21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3282.706029777723</v>
       </c>
       <c r="CH21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3233.465439331057</v>
       </c>
       <c r="CI21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3184.9634577410911</v>
       </c>
       <c r="CJ21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3137.1890058749746</v>
       </c>
       <c r="CK21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3090.1311707868499</v>
       </c>
       <c r="CL21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3043.7792032250472</v>
       </c>
       <c r="CM21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2998.1225151766716</v>
       </c>
       <c r="CN21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2953.1506774490217</v>
       </c>
       <c r="CO21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2908.8534172872864</v>
       </c>
       <c r="CP21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2865.220616027977</v>
       </c>
       <c r="CQ21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2822.2423067875575</v>
       </c>
       <c r="CR21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2779.9086721857443</v>
       </c>
       <c r="CS21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2738.2100421029581</v>
       </c>
       <c r="CT21" s="5">
-        <f t="shared" ref="CT21:DD21" si="16">+CS21*(1+$AI$52)</f>
+        <f t="shared" ref="CT21:DD21" si="26">+CS21*(1+$AI$52)</f>
         <v>2697.1368914714139</v>
       </c>
       <c r="CU21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2656.6798380993428</v>
       </c>
       <c r="CV21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2616.8296405278525</v>
       </c>
       <c r="CW21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2577.5771959199346</v>
       </c>
       <c r="CX21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2538.9135379811355</v>
       </c>
       <c r="CY21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2500.8298349114184</v>
       </c>
       <c r="CZ21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2463.3173873877472</v>
       </c>
       <c r="DA21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2426.3676265769309</v>
       </c>
       <c r="DB21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2389.9721121782768</v>
       </c>
       <c r="DC21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2354.1225304956024</v>
       </c>
       <c r="DD21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2318.8106925381685</v>
       </c>
       <c r="DE21" s="5"/>
@@ -3329,47 +3329,47 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <f>+C21/C22</f>
+        <f t="shared" ref="C23:M23" si="27">+C21/C22</f>
         <v>1.1743144175943523</v>
       </c>
       <c r="D23" s="7">
-        <f>+D21/D22</f>
+        <f t="shared" si="27"/>
         <v>1.3231273920174953</v>
       </c>
       <c r="E23" s="7">
-        <f>+E21/E22</f>
+        <f t="shared" si="27"/>
         <v>1.7396921385376585</v>
       </c>
       <c r="F23" s="7">
-        <f>+F21/F22</f>
+        <f t="shared" si="27"/>
         <v>-0.49230346344144937</v>
       </c>
       <c r="G23" s="7">
-        <f>+G21/G22</f>
+        <f t="shared" si="27"/>
         <v>2.182217343578484</v>
       </c>
       <c r="H23" s="7">
-        <f>+H21/H22</f>
+        <f t="shared" si="27"/>
         <v>2.5776980402980958</v>
       </c>
       <c r="I23" s="7">
-        <f>+I21/I22</f>
+        <f t="shared" si="27"/>
         <v>3.1039755351681957</v>
       </c>
       <c r="J23" s="7">
-        <f>+J21/J22</f>
+        <f t="shared" si="27"/>
         <v>1.4506533222129565</v>
       </c>
       <c r="K23" s="7">
-        <f>+K21/K22</f>
+        <f t="shared" si="27"/>
         <v>3.217635495647289</v>
       </c>
       <c r="L23" s="7">
-        <f>+L21/L22</f>
+        <f t="shared" si="27"/>
         <v>4.0846785613140764</v>
       </c>
       <c r="M23" s="7">
-        <f>+M21/M22</f>
+        <f t="shared" si="27"/>
         <v>4.7297605473204101</v>
       </c>
       <c r="N23" s="7"/>
@@ -3641,48 +3641,48 @@
         <v>-1243.3000000000002</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" ref="G29:M29" si="17">G25-G28</f>
+        <f t="shared" ref="G29:M29" si="28">G25-G28</f>
         <v>-1740.7000000000003</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>-2240.4</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>-2446.9</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>-2175.5999999999995</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>-2790.7000000000003</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>-3880.9</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>-4290.7</v>
       </c>
       <c r="P29" s="11"/>
       <c r="R29" s="1">
-        <f t="shared" ref="R29:U29" si="18">R25-R28</f>
+        <f t="shared" ref="R29:U29" si="29">R25-R28</f>
         <v>-1697.5</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>-1885</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>-1243.3000000000002</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>-2175.5999999999995</v>
       </c>
       <c r="V29" s="1">
@@ -3690,43 +3690,43 @@
         <v>3346.831244</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" ref="W29:AF29" si="19">W21+V29</f>
+        <f t="shared" ref="W29:AF29" si="30">W21+V29</f>
         <v>6841.8092075672012</v>
       </c>
       <c r="X29" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>9624.2897947042838</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>13545.313935636637</v>
       </c>
       <c r="Z29" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>17991.173448662048</v>
       </c>
       <c r="AA29" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>22898.314895057971</v>
       </c>
       <c r="AB29" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>28272.409589846473</v>
       </c>
       <c r="AC29" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>34104.455491098815</v>
       </c>
       <c r="AD29" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>40434.995591640683</v>
       </c>
       <c r="AE29" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>47237.893996395127</v>
       </c>
       <c r="AF29" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>54551.166842095408</v>
       </c>
     </row>
@@ -3739,48 +3739,48 @@
         <v>12522.7</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" ref="G30:M30" si="20">+G25+G26-G28</f>
+        <f t="shared" ref="G30:M30" si="31">+G25+G26-G28</f>
         <v>13274.699999999999</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>13990.600000000002</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>15208.899999999998</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>16330.499999999998</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>17245.099999999999</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>18208.399999999998</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>19490.8</v>
       </c>
       <c r="P30" s="11"/>
       <c r="R30" s="1">
-        <f t="shared" ref="R30:U30" si="21">+R25+R26-R28</f>
+        <f t="shared" ref="R30:U30" si="32">+R25+R26-R28</f>
         <v>9493.9</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>10469</v>
       </c>
       <c r="T30" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>12522.7</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>16330.499999999998</v>
       </c>
       <c r="V30" s="1">
@@ -3788,43 +3788,43 @@
         <v>21852.931243999999</v>
       </c>
       <c r="W30" s="1">
-        <f t="shared" ref="W30:AF30" si="22">V30+W21</f>
+        <f t="shared" ref="W30:AF30" si="33">V30+W21</f>
         <v>25347.909207567202</v>
       </c>
       <c r="X30" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>28130.389794704286</v>
       </c>
       <c r="Y30" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>32051.41393563664</v>
       </c>
       <c r="Z30" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>36497.273448662047</v>
       </c>
       <c r="AA30" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>41404.414895057969</v>
       </c>
       <c r="AB30" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>46778.509589846471</v>
       </c>
       <c r="AC30" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>52610.555491098814</v>
       </c>
       <c r="AD30" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>58941.095591640682</v>
       </c>
       <c r="AE30" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>65743.993996395133</v>
       </c>
       <c r="AF30" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>73057.266842095414</v>
       </c>
     </row>
@@ -3871,43 +3871,43 @@
         <v>63</v>
       </c>
       <c r="C32" s="15">
-        <f t="shared" ref="C32:L32" si="23">(C3-C7)/C3</f>
+        <f t="shared" ref="C32:L32" si="34">(C3-C7)/C3</f>
         <v>0.24589818730587681</v>
       </c>
       <c r="D32" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>0.21515825178190823</v>
       </c>
       <c r="E32" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>0.21931407942238274</v>
       </c>
       <c r="F32" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>0.19379194630872437</v>
       </c>
       <c r="G32" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>0.24589818730587681</v>
       </c>
       <c r="H32" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>0.25184753014391287</v>
       </c>
       <c r="I32" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>0.26432863169557258</v>
       </c>
       <c r="J32" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>0.27365398798862101</v>
       </c>
       <c r="K32" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>0.27946036896821103</v>
       </c>
       <c r="L32" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>0.29439140174951994</v>
       </c>
       <c r="M32" s="15">
@@ -3916,23 +3916,23 @@
       </c>
       <c r="P32" s="16"/>
       <c r="Q32" s="15">
-        <f t="shared" ref="Q32:U32" si="24">(Q3-Q7)/Q3</f>
+        <f t="shared" ref="Q32:U32" si="35">(Q3-Q7)/Q3</f>
         <v>0.19961620718952344</v>
       </c>
       <c r="R32" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>0.21337246806863636</v>
       </c>
       <c r="S32" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>0.20243426883308718</v>
       </c>
       <c r="T32" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>0.2205329025397734</v>
       </c>
       <c r="U32" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>0.26013131084446456</v>
       </c>
       <c r="V32" s="15">
@@ -3974,68 +3974,68 @@
         <v>64</v>
       </c>
       <c r="C33" s="15">
-        <f t="shared" ref="C33:M33" si="25">(C4-C8)/C4</f>
+        <f t="shared" ref="C33:M33" si="36">(C4-C8)/C4</f>
         <v>0.4357894736842105</v>
       </c>
       <c r="D33" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>0.45962732919254667</v>
       </c>
       <c r="E33" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>0.44961240310077522</v>
       </c>
       <c r="F33" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>0.26878130217028373</v>
       </c>
       <c r="G33" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>0.4357894736842105</v>
       </c>
       <c r="H33" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>0.40272373540856032</v>
       </c>
       <c r="I33" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>0.50179211469534046</v>
       </c>
       <c r="J33" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>0.4066317626527049</v>
       </c>
       <c r="K33" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>0.41281138790035588</v>
       </c>
       <c r="L33" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>0.54379562043795615</v>
       </c>
       <c r="M33" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>0.50399087799315856</v>
       </c>
       <c r="P33" s="16"/>
       <c r="Q33" s="15">
-        <f t="shared" ref="Q33:U33" si="26">(Q4-Q8)/Q4</f>
+        <f t="shared" ref="Q33:U33" si="37">(Q4-Q8)/Q4</f>
         <v>0.15288788221970556</v>
       </c>
       <c r="R33" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.19559517566858933</v>
       </c>
       <c r="S33" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.2568523430592396</v>
       </c>
       <c r="T33" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.38210399032648124</v>
       </c>
       <c r="U33" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>0.43726415094339621</v>
       </c>
       <c r="V33" s="15">
@@ -4136,68 +4136,68 @@
         <v>66</v>
       </c>
       <c r="C35" s="15">
-        <f t="shared" ref="C35:M35" si="27">(C6-C10)/C6</f>
+        <f t="shared" ref="C35:M35" si="38">(C6-C10)/C6</f>
         <v>0.9556623931623931</v>
       </c>
       <c r="D35" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0.91483253588516744</v>
       </c>
       <c r="E35" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0.96807151979565775</v>
       </c>
       <c r="F35" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0.98828696925329429</v>
       </c>
       <c r="G35" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0.9556623931623931</v>
       </c>
       <c r="H35" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0.98311111111111105</v>
       </c>
       <c r="I35" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0.97032326444091155</v>
       </c>
       <c r="J35" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0.95105523125280644</v>
       </c>
       <c r="K35" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0.97395550732501346</v>
       </c>
       <c r="L35" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0.93156235929761377</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0.9583169484860401</v>
       </c>
       <c r="P35" s="16"/>
       <c r="Q35" s="15">
-        <f t="shared" ref="Q35:U35" si="28">(Q6-Q10)/Q6</f>
+        <f t="shared" ref="Q35:U35" si="39">(Q6-Q10)/Q6</f>
         <v>0.88497854077253224</v>
       </c>
       <c r="R35" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>0.86570743405275785</v>
       </c>
       <c r="S35" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>0.87774507584333261</v>
       </c>
       <c r="T35" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>0.95930928363822887</v>
       </c>
       <c r="U35" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>0.9652744050509956</v>
       </c>
       <c r="V35" s="15">
@@ -4240,39 +4240,39 @@
         <v>20</v>
       </c>
       <c r="C36" s="13">
-        <f t="shared" ref="C36:D36" si="29">C13/C11</f>
+        <f t="shared" ref="C36:D36" si="40">C13/C11</f>
         <v>0.23291964085855699</v>
       </c>
       <c r="D36" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="40"/>
         <v>0.2331555555555555</v>
       </c>
       <c r="E36" s="13">
-        <f t="shared" ref="E36:K36" si="30">E13/E11</f>
+        <f t="shared" ref="E36:K36" si="41">E13/E11</f>
         <v>0.24217068645640077</v>
       </c>
       <c r="F36" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.11812615955473112</v>
       </c>
       <c r="G36" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.26981157515084098</v>
       </c>
       <c r="H36" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.27858350525058556</v>
       </c>
       <c r="I36" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.28443565878703014</v>
       </c>
       <c r="J36" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.21711555885017714</v>
       </c>
       <c r="K36" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.30449145093146568</v>
       </c>
       <c r="L36" s="13">
@@ -4287,23 +4287,23 @@
       <c r="O36" s="13"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="13">
-        <f t="shared" ref="Q36" si="31">Q13/Q11</f>
+        <f t="shared" ref="Q36" si="42">Q13/Q11</f>
         <v>0.21632247533886884</v>
       </c>
       <c r="R36" s="13">
-        <f t="shared" ref="R36:U36" si="32">R13/R11</f>
+        <f t="shared" ref="R36:U36" si="43">R13/R11</f>
         <v>0.22840428180234004</v>
       </c>
       <c r="S36" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>0.22008878581700581</v>
       </c>
       <c r="T36" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>0.24311949190094037</v>
       </c>
       <c r="U36" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>0.28353856124432925</v>
       </c>
       <c r="V36" s="13">
@@ -4311,43 +4311,43 @@
         <v>0.30943000215621369</v>
       </c>
       <c r="W36" s="13">
-        <f t="shared" ref="W36:AF36" si="33">W13/W11</f>
+        <f t="shared" ref="W36:AF36" si="44">W13/W11</f>
         <v>0.26716565840838691</v>
       </c>
       <c r="X36" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.26009908057183984</v>
       </c>
       <c r="Y36" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.29377954105414406</v>
       </c>
       <c r="Z36" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.28851182061797281</v>
       </c>
       <c r="AA36" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.29083279573448295</v>
       </c>
       <c r="AB36" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.29244693657301646</v>
       </c>
       <c r="AC36" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.29323514938848594</v>
       </c>
       <c r="AD36" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.29403314426095595</v>
       </c>
       <c r="AE36" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.29392903294577583</v>
       </c>
       <c r="AF36" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>0.2938480188946157</v>
       </c>
       <c r="AG36" s="13"/>
@@ -4362,39 +4362,39 @@
         <v>21</v>
       </c>
       <c r="C37" s="15">
-        <f t="shared" ref="C37:D37" si="34">C15/C11</f>
+        <f t="shared" ref="C37:D37" si="45">C15/C11</f>
         <v>0.11955629616733406</v>
       </c>
       <c r="D37" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>0.12942222222222219</v>
       </c>
       <c r="E37" s="15">
-        <f t="shared" ref="E37:K37" si="35">E15/E11</f>
+        <f t="shared" ref="E37:K37" si="46">E15/E11</f>
         <v>0.14430426716141007</v>
       </c>
       <c r="F37" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>7.2356215213359339E-3</v>
       </c>
       <c r="G37" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>0.17106549364613877</v>
       </c>
       <c r="H37" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>0.18218058291582001</v>
       </c>
       <c r="I37" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>0.19442385305987972</v>
       </c>
       <c r="J37" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>0.12199708975098157</v>
       </c>
       <c r="K37" s="15">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>0.21008308050018429</v>
       </c>
       <c r="L37" s="15">
@@ -4409,67 +4409,67 @@
       <c r="O37" s="15"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="15">
-        <f t="shared" ref="Q37" si="36">Q15/Q11</f>
+        <f t="shared" ref="Q37" si="47">Q15/Q11</f>
         <v>0.11188702008374145</v>
       </c>
       <c r="R37" s="15">
-        <f t="shared" ref="R37:U37" si="37">R15/R11</f>
+        <f t="shared" ref="R37:U37" si="48">R15/R11</f>
         <v>0.12404779686333085</v>
       </c>
       <c r="S37" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>0.11592744800459286</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>0.14229727733740336</v>
       </c>
       <c r="U37" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>0.19151004536616981</v>
       </c>
       <c r="V37" s="15">
-        <f>V15/V11</f>
+        <f t="shared" ref="V37:AF37" si="49">V15/V11</f>
         <v>0.21943000215621372</v>
       </c>
       <c r="W37" s="15">
-        <f>W15/W11</f>
+        <f t="shared" si="49"/>
         <v>0.17716565840838688</v>
       </c>
       <c r="X37" s="15">
-        <f>X15/X11</f>
+        <f t="shared" si="49"/>
         <v>0.17009908057183987</v>
       </c>
       <c r="Y37" s="15">
-        <f>Y15/Y11</f>
+        <f t="shared" si="49"/>
         <v>0.20377954105414406</v>
       </c>
       <c r="Z37" s="15">
-        <f>Z15/Z11</f>
+        <f t="shared" si="49"/>
         <v>0.2085118206179728</v>
       </c>
       <c r="AA37" s="15">
-        <f>AA15/AA11</f>
+        <f t="shared" si="49"/>
         <v>0.21083279573448294</v>
       </c>
       <c r="AB37" s="15">
-        <f>AB15/AB11</f>
+        <f t="shared" si="49"/>
         <v>0.21244693657301647</v>
       </c>
       <c r="AC37" s="15">
-        <f>AC15/AC11</f>
+        <f t="shared" si="49"/>
         <v>0.21323514938848592</v>
       </c>
       <c r="AD37" s="15">
-        <f>AD15/AD11</f>
+        <f t="shared" si="49"/>
         <v>0.2140331442609559</v>
       </c>
       <c r="AE37" s="15">
-        <f>AE15/AE11</f>
+        <f t="shared" si="49"/>
         <v>0.21392903294577584</v>
       </c>
       <c r="AF37" s="15">
-        <f>AF15/AF11</f>
+        <f t="shared" si="49"/>
         <v>0.21384801889461569</v>
       </c>
       <c r="AG37" s="15"/>
@@ -4483,43 +4483,43 @@
         <v>69</v>
       </c>
       <c r="C38" s="18">
-        <f t="shared" ref="C38:L38" si="38">C20/C19</f>
+        <f t="shared" ref="C38:L38" si="50">C20/C19</f>
         <v>0.17351423657557807</v>
       </c>
       <c r="D38" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>0.22098825044262038</v>
       </c>
       <c r="E38" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>0.19107873210633941</v>
       </c>
       <c r="F38" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>4.9104803493449047</v>
       </c>
       <c r="G38" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>0.23117084018176556</v>
       </c>
       <c r="H38" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>0.20849224510551739</v>
       </c>
       <c r="I38" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>0.21128849957615145</v>
       </c>
       <c r="J38" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>0.4218923111012628</v>
       </c>
       <c r="K38" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>0.23475589394242974</v>
       </c>
       <c r="L38" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>0.23416343652100033</v>
       </c>
       <c r="M38" s="18">
@@ -4528,19 +4528,19 @@
       </c>
       <c r="P38" s="19"/>
       <c r="Q38" s="18">
-        <f t="shared" ref="Q38:T38" si="39">Q20/Q19</f>
+        <f t="shared" ref="Q38:T38" si="51">Q20/Q19</f>
         <v>0.35185069596155033</v>
       </c>
       <c r="R38" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>0.290131547012281</v>
       </c>
       <c r="S38" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>0.23841340046111115</v>
       </c>
       <c r="T38" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>0.20197110388522008</v>
       </c>
       <c r="U38" s="18">
@@ -4590,35 +4590,35 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15">
-        <f>F11/F27</f>
+        <f t="shared" ref="F39:M39" si="52">F11/F27</f>
         <v>7.8835746672517182</v>
       </c>
       <c r="G39" s="15">
-        <f>G11/G27</f>
+        <f t="shared" si="52"/>
         <v>7.9281133083912341</v>
       </c>
       <c r="H39" s="15">
-        <f>H11/H27</f>
+        <f t="shared" si="52"/>
         <v>7.2032402234636868</v>
       </c>
       <c r="I39" s="15">
-        <f>I11/I27</f>
+        <f t="shared" si="52"/>
         <v>19.849046321525886</v>
       </c>
       <c r="J39" s="15">
-        <f>J11/J27</f>
+        <f t="shared" si="52"/>
         <v>18.540595571392213</v>
       </c>
       <c r="K39" s="15">
-        <f>K11/K27</f>
+        <f t="shared" si="52"/>
         <v>17.186647173489281</v>
       </c>
       <c r="L39" s="15">
-        <f>L11/L27</f>
+        <f t="shared" si="52"/>
         <v>18.430875576036865</v>
       </c>
       <c r="M39" s="15">
-        <f>M11/M27</f>
+        <f t="shared" si="52"/>
         <v>18.258882194057758</v>
       </c>
       <c r="N39" s="15"/>
@@ -4626,19 +4626,19 @@
       <c r="P39" s="16"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="15">
-        <f t="shared" ref="R39:U39" si="40">R11/R27</f>
+        <f t="shared" ref="R39:U39" si="53">R11/R27</f>
         <v>40.05983545250561</v>
       </c>
       <c r="S39" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>38.063392470791868</v>
       </c>
       <c r="T39" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>29.7074740383209</v>
       </c>
       <c r="U39" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>70.689742937134142</v>
       </c>
       <c r="V39" s="15"/>
@@ -4667,35 +4667,35 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15">
-        <f>F11/F26</f>
+        <f t="shared" ref="F40:M40" si="54">F11/F26</f>
         <v>0.39154438471596686</v>
       </c>
       <c r="G40" s="15">
-        <f>G11/G26</f>
+        <f t="shared" si="54"/>
         <v>0.39515430824353664</v>
       </c>
       <c r="H40" s="15">
-        <f>H11/H26</f>
+        <f t="shared" si="54"/>
         <v>0.39719672232148356</v>
       </c>
       <c r="I40" s="15">
-        <f>I11/I26</f>
+        <f t="shared" si="54"/>
         <v>0.41258963060297471</v>
       </c>
       <c r="J40" s="15">
-        <f>J11/J26</f>
+        <f t="shared" si="54"/>
         <v>0.39363236986723299</v>
       </c>
       <c r="K40" s="15">
-        <f>K11/K26</f>
+        <f t="shared" si="54"/>
         <v>0.35203984867087912</v>
       </c>
       <c r="L40" s="15">
-        <f>L11/L26</f>
+        <f t="shared" si="54"/>
         <v>0.36212102692253717</v>
       </c>
       <c r="M40" s="15">
-        <f>M11/M26</f>
+        <f t="shared" si="54"/>
         <v>0.36953093791392466</v>
       </c>
       <c r="N40" s="15"/>
@@ -4703,19 +4703,19 @@
       <c r="P40" s="16"/>
       <c r="Q40" s="15"/>
       <c r="R40" s="15">
-        <f t="shared" ref="R40:U40" si="41">R11/R26</f>
+        <f t="shared" ref="R40:U40" si="55">R11/R26</f>
         <v>1.4357453044301876</v>
       </c>
       <c r="S40" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="55"/>
         <v>1.4240650801359884</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="55"/>
         <v>1.4754467528693884</v>
       </c>
       <c r="U40" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="55"/>
         <v>1.500802438115</v>
       </c>
       <c r="V40" s="15"/>
@@ -4741,39 +4741,39 @@
         <v>39</v>
       </c>
       <c r="C41" s="15">
-        <f t="shared" ref="C41:D41" si="42">C14/C11</f>
+        <f t="shared" ref="C41:D41" si="56">C14/C11</f>
         <v>0.11336334469122293</v>
       </c>
       <c r="D41" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>0.10373333333333333</v>
       </c>
       <c r="E41" s="15">
-        <f t="shared" ref="E41:K41" si="43">E14/E11</f>
+        <f t="shared" ref="E41:K41" si="57">E14/E11</f>
         <v>9.7866419294990722E-2</v>
       </c>
       <c r="F41" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="57"/>
         <v>0.11089053803339519</v>
       </c>
       <c r="G41" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="57"/>
         <v>9.8746081504702196E-2</v>
       </c>
       <c r="H41" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="57"/>
         <v>9.6402922334765551E-2</v>
       </c>
       <c r="I41" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="57"/>
         <v>9.0011805727150423E-2</v>
       </c>
       <c r="J41" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="57"/>
         <v>9.5118469099195552E-2</v>
       </c>
       <c r="K41" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="57"/>
         <v>9.4408370431281363E-2</v>
       </c>
       <c r="L41" s="15">
@@ -4788,23 +4788,23 @@
       <c r="O41" s="15"/>
       <c r="P41" s="16"/>
       <c r="Q41" s="15">
-        <f t="shared" ref="Q41" si="44">Q14/Q11</f>
+        <f t="shared" ref="Q41" si="58">Q14/Q11</f>
         <v>0.10443545525512737</v>
       </c>
       <c r="R41" s="15">
-        <f t="shared" ref="R41:U41" si="45">R14/R11</f>
+        <f t="shared" ref="R41:U41" si="59">R14/R11</f>
         <v>0.1043564849390092</v>
       </c>
       <c r="S41" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>0.10416133781241295</v>
       </c>
       <c r="T41" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>0.100822214563537</v>
       </c>
       <c r="U41" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>9.2028515878159425E-2</v>
       </c>
       <c r="V41" s="15">
@@ -4890,27 +4890,27 @@
         <v>59</v>
       </c>
       <c r="G43" s="15">
-        <f t="shared" ref="G43:L43" si="46">G3/C3-1</f>
+        <f t="shared" ref="G43:L43" si="60">G3/C3-1</f>
         <v>0</v>
       </c>
       <c r="H43" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>0.41415900809020689</v>
       </c>
       <c r="I43" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>0.35188954604808353</v>
       </c>
       <c r="J43" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>0.76938851603281266</v>
       </c>
       <c r="K43" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>0.16805587239194897</v>
       </c>
       <c r="L43" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>0.21535070659924815</v>
       </c>
       <c r="M43" s="15">
@@ -4919,19 +4919,19 @@
       </c>
       <c r="P43" s="16"/>
       <c r="R43" s="15">
-        <f>R3/Q3-1</f>
+        <f t="shared" ref="R43:U44" si="61">R3/Q3-1</f>
         <v>0.13541147862772096</v>
       </c>
       <c r="S43" s="15">
-        <f>S3/R3-1</f>
+        <f t="shared" si="61"/>
         <v>9.1794607147464902E-2</v>
       </c>
       <c r="T43" s="15">
-        <f>T3/S3-1</f>
+        <f t="shared" si="61"/>
         <v>0.15573412112259977</v>
       </c>
       <c r="U43" s="15">
-        <f>U3/T3-1</f>
+        <f t="shared" si="61"/>
         <v>0.35485256226739192</v>
       </c>
       <c r="V43" s="15">
@@ -4973,48 +4973,48 @@
         <v>60</v>
       </c>
       <c r="G44" s="15">
-        <f t="shared" ref="G44:M44" si="47">G4/C4-1</f>
+        <f t="shared" ref="G44:M44" si="62">G4/C4-1</f>
         <v>0</v>
       </c>
       <c r="H44" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="62"/>
         <v>0.59627329192546563</v>
       </c>
       <c r="I44" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="62"/>
         <v>1.1627906976744184</v>
       </c>
       <c r="J44" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="62"/>
         <v>-4.340567612687829E-2</v>
       </c>
       <c r="K44" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="62"/>
         <v>0.18315789473684219</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="62"/>
         <v>6.6147859922178975E-2</v>
       </c>
       <c r="M44" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="62"/>
         <v>0.5716845878136203</v>
       </c>
       <c r="P44" s="16"/>
       <c r="R44" s="15">
-        <f>R4/Q4-1</f>
+        <f t="shared" si="61"/>
         <v>1.1596828992072479</v>
       </c>
       <c r="S44" s="15">
-        <f>S4/R4-1</f>
+        <f t="shared" si="61"/>
         <v>0.18615626638699534</v>
       </c>
       <c r="T44" s="15">
-        <f>T4/S4-1</f>
+        <f t="shared" si="61"/>
         <v>-0.26878868258178601</v>
       </c>
       <c r="U44" s="15">
-        <f>U4/T4-1</f>
+        <f t="shared" si="61"/>
         <v>0.28174123337363954</v>
       </c>
       <c r="V44" s="15">
@@ -5095,48 +5095,48 @@
         <v>62</v>
       </c>
       <c r="G46" s="15">
-        <f t="shared" ref="G46:M46" si="48">G6/C6-1</f>
+        <f t="shared" ref="G46:M46" si="63">G6/C6-1</f>
         <v>0</v>
       </c>
       <c r="H46" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>1.1531100478468899</v>
       </c>
       <c r="I46" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>0.20498084291187735</v>
       </c>
       <c r="J46" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>0.63030746705710228</v>
       </c>
       <c r="K46" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>-1.5491452991452825E-2</v>
       </c>
       <c r="L46" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>-1.288888888888895E-2</v>
       </c>
       <c r="M46" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>0.34764175940646536</v>
       </c>
       <c r="P46" s="16"/>
       <c r="R46" s="15">
-        <f t="shared" ref="R45:U46" si="49">R6/Q6-1</f>
+        <f t="shared" ref="R46:U46" si="64">R6/Q6-1</f>
         <v>7.3819742489270368E-2</v>
       </c>
       <c r="S46" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="64"/>
         <v>0.17692512656541437</v>
       </c>
       <c r="T46" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="64"/>
         <v>0.32420194702286609</v>
       </c>
       <c r="U46" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="64"/>
         <v>0.40810394939305872</v>
       </c>
       <c r="V46" s="15">
@@ -5183,11 +5183,11 @@
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="13">
-        <f t="shared" ref="G47:H47" si="50">G11/C11-1</f>
+        <f t="shared" ref="G47:H47" si="65">G11/C11-1</f>
         <v>0.47571318427139553</v>
       </c>
       <c r="H47" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>0.43264444444444439</v>
       </c>
       <c r="I47" s="13">
@@ -5215,63 +5215,63 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="13"/>
       <c r="R47" s="13">
-        <f>R11/Q11-1</f>
+        <f t="shared" ref="R47:AF47" si="66">R11/Q11-1</f>
         <v>0.14030232063018944</v>
       </c>
       <c r="S47" s="13">
-        <f>S11/R11-1</f>
+        <f t="shared" si="66"/>
         <v>9.4902912621359414E-2</v>
       </c>
       <c r="T47" s="13">
-        <f>T11/S11-1</f>
+        <f t="shared" si="66"/>
         <v>0.15449982663460826</v>
       </c>
       <c r="U47" s="13">
-        <f>U11/T11-1</f>
+        <f t="shared" si="66"/>
         <v>0.36743636453153461</v>
       </c>
       <c r="V47" s="13">
-        <f>V11/U11-1</f>
+        <f t="shared" si="66"/>
         <v>0.17889320947648879</v>
       </c>
       <c r="W47" s="13">
-        <f>W11/V11-1</f>
+        <f t="shared" si="66"/>
         <v>-0.17651373837980999</v>
       </c>
       <c r="X47" s="13">
-        <f>X11/W11-1</f>
+        <f t="shared" si="66"/>
         <v>-0.15664779769397719</v>
       </c>
       <c r="Y47" s="13">
-        <f>Y11/X11-1</f>
+        <f t="shared" si="66"/>
         <v>0.16291338063019056</v>
       </c>
       <c r="Z47" s="13">
-        <f>Z11/Y11-1</f>
+        <f t="shared" si="66"/>
         <v>0.10834867854558783</v>
       </c>
       <c r="AA47" s="13">
-        <f>AA11/Z11-1</f>
+        <f t="shared" si="66"/>
         <v>9.3083675132349164E-2</v>
       </c>
       <c r="AB47" s="13">
-        <f>AB11/AA11-1</f>
+        <f t="shared" si="66"/>
         <v>8.8555993920092613E-2</v>
       </c>
       <c r="AC47" s="13">
-        <f>AC11/AB11-1</f>
+        <f t="shared" si="66"/>
         <v>8.3228048108621167E-2</v>
       </c>
       <c r="AD47" s="13">
-        <f>AD11/AC11-1</f>
+        <f t="shared" si="66"/>
         <v>8.3278028966922601E-2</v>
       </c>
       <c r="AE47" s="13">
-        <f>AE11/AD11-1</f>
+        <f t="shared" si="66"/>
         <v>7.7379818489857088E-2</v>
       </c>
       <c r="AF47" s="13">
-        <f>AF11/AE11-1</f>
+        <f t="shared" si="66"/>
         <v>7.7490452980293112E-2</v>
       </c>
       <c r="AG47" s="13"/>
@@ -5290,11 +5290,11 @@
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
       <c r="G48" s="13">
-        <f t="shared" ref="G48:H48" si="51">+G15/C15-1</f>
+        <f t="shared" ref="G48:H48" si="67">+G15/C15-1</f>
         <v>1.1115040565841476</v>
       </c>
       <c r="H48" s="13">
-        <f t="shared" si="51"/>
+        <f t="shared" si="67"/>
         <v>1.0166552197802203</v>
       </c>
       <c r="I48" s="13">
@@ -5338,47 +5338,47 @@
         <v>0.76085860707384678</v>
       </c>
       <c r="V48" s="13">
-        <f t="shared" ref="V48:AF48" si="52">V21/U21-1</f>
+        <f t="shared" ref="V48:AF48" si="68">V21/U21-1</f>
         <v>0.31740529211097601</v>
       </c>
       <c r="W48" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>-0.36713056095276553</v>
       </c>
       <c r="X48" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>-0.20386319566458644</v>
       </c>
       <c r="Y48" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>0.40918292801702094</v>
       </c>
       <c r="Z48" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>0.13385160438422106</v>
       </c>
       <c r="AA48" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>0.10375540028177999</v>
       </c>
       <c r="AB48" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>9.5157894569258605E-2</v>
       </c>
       <c r="AC48" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>8.5214577053867702E-2</v>
       </c>
       <c r="AD48" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>8.547501301086835E-2</v>
       </c>
       <c r="AE48" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>7.4615798448563142E-2</v>
       </c>
       <c r="AF48" s="13">
-        <f t="shared" si="52"/>
+        <f t="shared" si="68"/>
         <v>7.5023087304837865E-2</v>
       </c>
       <c r="AG48" s="13"/>
@@ -5438,36 +5438,36 @@
         <v>6.1790711699860612E-3</v>
       </c>
       <c r="H51" s="18">
-        <f t="shared" ref="H51:M51" si="53">(1+(H16+H18)/G30)^4-1</f>
+        <f t="shared" ref="H51:M51" si="69">(1+(H16+H18)/G30)^4-1</f>
         <v>1.6281485482563252E-3</v>
       </c>
       <c r="I51" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>4.9840570921666494E-3</v>
       </c>
       <c r="J51" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>3.6607689528751486E-3</v>
       </c>
       <c r="K51" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>3.8019856270012919E-3</v>
       </c>
       <c r="L51" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>2.1588800787670781E-3</v>
       </c>
       <c r="M51" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>3.321278915317416E-3</v>
       </c>
       <c r="P51" s="19"/>
       <c r="S51" s="18">
-        <f t="shared" ref="S51:T51" si="54">(S16+S18)/R30</f>
+        <f t="shared" ref="S51:T51" si="70">(S16+S18)/R30</f>
         <v>9.0373818978501993E-3</v>
       </c>
       <c r="T51" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="70"/>
         <v>8.8738179386760926E-3</v>
       </c>
       <c r="U51" s="18">
@@ -5479,43 +5479,43 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="W51" s="18">
-        <f t="shared" ref="W51:AF51" si="55">W16/V30</f>
+        <f t="shared" ref="W51:AF51" si="71">W16/V30</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X51" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="71"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="Y51" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="71"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="Z51" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="71"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA51" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="71"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AB51" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="71"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AC51" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="71"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD51" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="71"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE51" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="71"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AF51" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="71"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
